--- a/natmiOut/OldD0/LR-pairs_lrc2p/Psen1-Ncstn.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Psen1-Ncstn.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.2432589255992</v>
+        <v>24.916566</v>
       </c>
       <c r="H2">
-        <v>20.2432589255992</v>
+        <v>74.749698</v>
       </c>
       <c r="I2">
-        <v>0.4097028038315105</v>
+        <v>0.459912889255076</v>
       </c>
       <c r="J2">
-        <v>0.4097028038315105</v>
+        <v>0.459912889255076</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.7262959960364</v>
+        <v>23.77057966666666</v>
       </c>
       <c r="N2">
-        <v>21.7262959960364</v>
+        <v>71.31173899999999</v>
       </c>
       <c r="O2">
-        <v>0.3445215503160205</v>
+        <v>0.3626243450559418</v>
       </c>
       <c r="P2">
-        <v>0.3445215503160205</v>
+        <v>0.3626243450559418</v>
       </c>
       <c r="Q2">
-        <v>439.811035341974</v>
+        <v>592.2812171227579</v>
       </c>
       <c r="R2">
-        <v>439.811035341974</v>
+        <v>5330.530954104821</v>
       </c>
       <c r="S2">
-        <v>0.1411514451448524</v>
+        <v>0.1667756102489078</v>
       </c>
       <c r="T2">
-        <v>0.1411514451448524</v>
+        <v>0.1667756102489078</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.2432589255992</v>
+        <v>24.916566</v>
       </c>
       <c r="H3">
-        <v>20.2432589255992</v>
+        <v>74.749698</v>
       </c>
       <c r="I3">
-        <v>0.4097028038315105</v>
+        <v>0.459912889255076</v>
       </c>
       <c r="J3">
-        <v>0.4097028038315105</v>
+        <v>0.459912889255076</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>29.2544654525052</v>
+        <v>29.46642766666666</v>
       </c>
       <c r="N3">
-        <v>29.2544654525052</v>
+        <v>88.399283</v>
       </c>
       <c r="O3">
-        <v>0.4638983926759657</v>
+        <v>0.4495155012457325</v>
       </c>
       <c r="P3">
-        <v>0.4638983926759657</v>
+        <v>0.4495155012457325</v>
       </c>
       <c r="Q3">
-        <v>592.2057188850594</v>
+        <v>734.2021897407259</v>
       </c>
       <c r="R3">
-        <v>592.2057188850594</v>
+        <v>6607.819707666534</v>
       </c>
       <c r="S3">
-        <v>0.1900604721722742</v>
+        <v>0.2067379729428686</v>
       </c>
       <c r="T3">
-        <v>0.1900604721722742</v>
+        <v>0.2067379729428686</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.2432589255992</v>
+        <v>24.916566</v>
       </c>
       <c r="H4">
-        <v>20.2432589255992</v>
+        <v>74.749698</v>
       </c>
       <c r="I4">
-        <v>0.4097028038315105</v>
+        <v>0.459912889255076</v>
       </c>
       <c r="J4">
-        <v>0.4097028038315105</v>
+        <v>0.459912889255076</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.0814649233862</v>
+        <v>12.31452</v>
       </c>
       <c r="N4">
-        <v>12.0814649233862</v>
+        <v>36.94356</v>
       </c>
       <c r="O4">
-        <v>0.1915800570080138</v>
+        <v>0.1878601536983258</v>
       </c>
       <c r="P4">
-        <v>0.1915800570080138</v>
+        <v>0.1878601536983257</v>
       </c>
       <c r="Q4">
-        <v>244.5682226446513</v>
+        <v>306.83555033832</v>
       </c>
       <c r="R4">
-        <v>244.5682226446513</v>
+        <v>2761.519953044879</v>
       </c>
       <c r="S4">
-        <v>0.07849088651438388</v>
+        <v>0.08639930606329965</v>
       </c>
       <c r="T4">
-        <v>0.07849088651438388</v>
+        <v>0.08639930606329964</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.5925770261033</v>
+        <v>19.60300333333333</v>
       </c>
       <c r="H5">
-        <v>19.5925770261033</v>
+        <v>58.80901</v>
       </c>
       <c r="I5">
-        <v>0.3965336693751624</v>
+        <v>0.3618345281251927</v>
       </c>
       <c r="J5">
-        <v>0.3965336693751624</v>
+        <v>0.3618345281251927</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.7262959960364</v>
+        <v>23.77057966666666</v>
       </c>
       <c r="N5">
-        <v>21.7262959960364</v>
+        <v>71.31173899999999</v>
       </c>
       <c r="O5">
-        <v>0.3445215503160205</v>
+        <v>0.3626243450559418</v>
       </c>
       <c r="P5">
-        <v>0.3445215503160205</v>
+        <v>0.3626243450559418</v>
       </c>
       <c r="Q5">
-        <v>425.6741277942629</v>
+        <v>465.9747524409321</v>
       </c>
       <c r="R5">
-        <v>425.6741277942629</v>
+        <v>4193.772771968389</v>
       </c>
       <c r="S5">
-        <v>0.1366143945256313</v>
+        <v>0.1312100087800237</v>
       </c>
       <c r="T5">
-        <v>0.1366143945256313</v>
+        <v>0.1312100087800237</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.5925770261033</v>
+        <v>19.60300333333333</v>
       </c>
       <c r="H6">
-        <v>19.5925770261033</v>
+        <v>58.80901</v>
       </c>
       <c r="I6">
-        <v>0.3965336693751624</v>
+        <v>0.3618345281251927</v>
       </c>
       <c r="J6">
-        <v>0.3965336693751624</v>
+        <v>0.3618345281251927</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>29.2544654525052</v>
+        <v>29.46642766666666</v>
       </c>
       <c r="N6">
-        <v>29.2544654525052</v>
+        <v>88.399283</v>
       </c>
       <c r="O6">
-        <v>0.4638983926759657</v>
+        <v>0.4495155012457325</v>
       </c>
       <c r="P6">
-        <v>0.4638983926759657</v>
+        <v>0.4495155012457325</v>
       </c>
       <c r="Q6">
-        <v>573.1703677356861</v>
+        <v>577.6304797710922</v>
       </c>
       <c r="R6">
-        <v>573.1703677356861</v>
+        <v>5198.67431793983</v>
       </c>
       <c r="S6">
-        <v>0.1839513318650406</v>
+        <v>0.1626502292782091</v>
       </c>
       <c r="T6">
-        <v>0.1839513318650406</v>
+        <v>0.1626502292782091</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.5925770261033</v>
+        <v>19.60300333333333</v>
       </c>
       <c r="H7">
-        <v>19.5925770261033</v>
+        <v>58.80901</v>
       </c>
       <c r="I7">
-        <v>0.3965336693751624</v>
+        <v>0.3618345281251927</v>
       </c>
       <c r="J7">
-        <v>0.3965336693751624</v>
+        <v>0.3618345281251927</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.0814649233862</v>
+        <v>12.31452</v>
       </c>
       <c r="N7">
-        <v>12.0814649233862</v>
+        <v>36.94356</v>
       </c>
       <c r="O7">
-        <v>0.1915800570080138</v>
+        <v>0.1878601536983258</v>
       </c>
       <c r="P7">
-        <v>0.1915800570080138</v>
+        <v>0.1878601536983257</v>
       </c>
       <c r="Q7">
-        <v>236.7070320996093</v>
+        <v>241.4015766084</v>
       </c>
       <c r="R7">
-        <v>236.7070320996093</v>
+        <v>2172.6141894756</v>
       </c>
       <c r="S7">
-        <v>0.07596794298449051</v>
+        <v>0.06797429006695987</v>
       </c>
       <c r="T7">
-        <v>0.07596794298449051</v>
+        <v>0.06797429006695986</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.57378179141698</v>
+        <v>9.657138000000002</v>
       </c>
       <c r="H8">
-        <v>9.57378179141698</v>
+        <v>28.971414</v>
       </c>
       <c r="I8">
-        <v>0.1937635267933271</v>
+        <v>0.1782525826197313</v>
       </c>
       <c r="J8">
-        <v>0.1937635267933271</v>
+        <v>0.1782525826197313</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.7262959960364</v>
+        <v>23.77057966666666</v>
       </c>
       <c r="N8">
-        <v>21.7262959960364</v>
+        <v>71.31173899999999</v>
       </c>
       <c r="O8">
-        <v>0.3445215503160205</v>
+        <v>0.3626243450559418</v>
       </c>
       <c r="P8">
-        <v>0.3445215503160205</v>
+        <v>0.3626243450559418</v>
       </c>
       <c r="Q8">
-        <v>208.0028170017889</v>
+        <v>229.555768180994</v>
       </c>
       <c r="R8">
-        <v>208.0028170017889</v>
+        <v>2066.001913628946</v>
       </c>
       <c r="S8">
-        <v>0.06675571064553681</v>
+        <v>0.06463872602701019</v>
       </c>
       <c r="T8">
-        <v>0.06675571064553681</v>
+        <v>0.06463872602701019</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.57378179141698</v>
+        <v>9.657138000000002</v>
       </c>
       <c r="H9">
-        <v>9.57378179141698</v>
+        <v>28.971414</v>
       </c>
       <c r="I9">
-        <v>0.1937635267933271</v>
+        <v>0.1782525826197313</v>
       </c>
       <c r="J9">
-        <v>0.1937635267933271</v>
+        <v>0.1782525826197313</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>29.2544654525052</v>
+        <v>29.46642766666666</v>
       </c>
       <c r="N9">
-        <v>29.2544654525052</v>
+        <v>88.399283</v>
       </c>
       <c r="O9">
-        <v>0.4638983926759657</v>
+        <v>0.4495155012457325</v>
       </c>
       <c r="P9">
-        <v>0.4638983926759657</v>
+        <v>0.4495155012457325</v>
       </c>
       <c r="Q9">
-        <v>280.0758686668314</v>
+        <v>284.561358344018</v>
       </c>
       <c r="R9">
-        <v>280.0758686668314</v>
+        <v>2561.052225096162</v>
       </c>
       <c r="S9">
-        <v>0.08988658863865083</v>
+        <v>0.08012729902465483</v>
       </c>
       <c r="T9">
-        <v>0.08988658863865083</v>
+        <v>0.08012729902465485</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.57378179141698</v>
+        <v>9.657138000000002</v>
       </c>
       <c r="H10">
-        <v>9.57378179141698</v>
+        <v>28.971414</v>
       </c>
       <c r="I10">
-        <v>0.1937635267933271</v>
+        <v>0.1782525826197313</v>
       </c>
       <c r="J10">
-        <v>0.1937635267933271</v>
+        <v>0.1782525826197313</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.0814649233862</v>
+        <v>12.31452</v>
       </c>
       <c r="N10">
-        <v>12.0814649233862</v>
+        <v>36.94356</v>
       </c>
       <c r="O10">
-        <v>0.1915800570080138</v>
+        <v>0.1878601536983258</v>
       </c>
       <c r="P10">
-        <v>0.1915800570080138</v>
+        <v>0.1878601536983257</v>
       </c>
       <c r="Q10">
-        <v>115.6653088971577</v>
+        <v>118.92301904376</v>
       </c>
       <c r="R10">
-        <v>115.6653088971577</v>
+        <v>1070.30717139384</v>
       </c>
       <c r="S10">
-        <v>0.03712122750913941</v>
+        <v>0.03348655756806623</v>
       </c>
       <c r="T10">
-        <v>0.03712122750913941</v>
+        <v>0.03348655756806622</v>
       </c>
     </row>
   </sheetData>
